--- a/Sessions_Delivered/Demystifying Speaking/TimeBoxingSpreadSheet.xlsx
+++ b/Sessions_Delivered/Demystifying Speaking/TimeBoxingSpreadSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\Resources\Speaking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubRepos\Resources\Sessions_Delivered\Demystifying Speaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A0A6A2-E48E-40F0-A89C-C42910376EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2CF26-3C38-46F3-9D26-B84563C9C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B8C04C2-9206-4B6B-A368-A88E124A934C}"/>
+    <workbookView xWindow="46095" yWindow="3135" windowWidth="28935" windowHeight="15660" xr2:uid="{7B8C04C2-9206-4B6B-A368-A88E124A934C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>End</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>What to talk about</t>
+  </si>
+  <si>
+    <t>Creating sessions descriptions</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Working Memory</t>
+  </si>
+  <si>
+    <t>Curse of Knowledge</t>
+  </si>
+  <si>
+    <t>Planing a session</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Language / Acynorms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recap </t>
   </si>
 </sst>
 </file>
@@ -427,10 +454,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -448,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>A2+$B$13</f>
+        <f t="shared" ref="B2:B11" si="0">A2+$B$13</f>
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C2" t="s">
@@ -461,48 +491,63 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B3" s="1">
-        <f>A3+$B$13</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A12" si="0">B3</f>
+        <f t="shared" ref="A4:A11" si="1">B3</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B4" s="1">
-        <f>A4+$B$13</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B5" s="1">
-        <f>A5+$B$13</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="B6" s="1">
-        <f>A6+$B$13</f>
+        <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="B7" s="1">
-        <f>A7+$B$13</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333336E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,38 +556,50 @@
         <v>2.0833333333333336E-2</v>
       </c>
       <c r="B8" s="1">
-        <f>A8+$B$13</f>
+        <f t="shared" si="0"/>
         <v>2.4305555555555559E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4305555555555559E-2</v>
       </c>
       <c r="B9" s="1">
-        <f>A9+$B$13</f>
+        <f t="shared" si="0"/>
         <v>2.7777777777777783E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7777777777777783E-2</v>
       </c>
       <c r="B10" s="1">
-        <f>A10+$B$13</f>
+        <f t="shared" si="0"/>
         <v>3.1250000000000007E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1250000000000007E-2</v>
       </c>
       <c r="B11" s="1">
-        <f>A11+$B$13</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222231E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
